--- a/data/trans_orig/Q46-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q46-Dificultad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>79.43161295424213</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>79.78725572961855</v>
+        <v>79.78725572961856</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>66.75839827344751</v>
@@ -681,7 +681,7 @@
         <v>69.32587254261001</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>70.60294901130412</v>
+        <v>70.60294901130413</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>70.76645870093115</v>
@@ -693,7 +693,7 @@
         <v>74.15231417827169</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>74.67033751643346</v>
+        <v>74.67033751643345</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>76.19989196987581</v>
+        <v>76.21420866350951</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>78.63510964384403</v>
+        <v>78.57462569399023</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>78.53240270269895</v>
+        <v>78.60400111780598</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>78.35383365594768</v>
+        <v>78.23076107955475</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>65.96549964877914</v>
+        <v>65.92468619415646</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>68.41277519593734</v>
+        <v>68.39226578864081</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>68.46018860278639</v>
+        <v>68.51681671137165</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>69.52739393052896</v>
+        <v>69.56569621972733</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>70.13041351836151</v>
+        <v>70.09419396100304</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>73.55921248156137</v>
+        <v>73.56407997752031</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>73.48061437294966</v>
+        <v>73.52981601631063</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>73.66917356398764</v>
+        <v>73.76705287965648</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>78.02773429820259</v>
+        <v>78.13226715085139</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>80.46751452011071</v>
+        <v>80.40157615270878</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>80.31237061955871</v>
+        <v>80.30673108761879</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>81.42055507835333</v>
+        <v>81.50527731989527</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>67.70295942640735</v>
+        <v>67.57915544788374</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>70.04550305985806</v>
+        <v>70.06800757901519</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>70.1428573263257</v>
+        <v>70.1941120452905</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>71.75215359478776</v>
+        <v>71.69003684458905</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>71.47774069080442</v>
+        <v>71.47363918150185</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>74.87133670024681</v>
+        <v>74.88082283040107</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>74.79545008327014</v>
+        <v>74.79370956434407</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>75.73080106272843</v>
+        <v>75.74703047951317</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>80.07952198011992</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>80.10189564661316</v>
+        <v>80.10189564661314</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>65.94402792062746</v>
@@ -829,7 +829,7 @@
         <v>73.52195461939398</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>74.16563199166315</v>
+        <v>74.16563199166316</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>77.08456677007115</v>
+        <v>77.07725083794956</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>79.47847044204038</v>
+        <v>79.42676792737342</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>79.20429615127492</v>
+        <v>79.23073806822187</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>79.07486165947803</v>
+        <v>79.13392448206091</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>65.2006621687553</v>
+        <v>65.25863487076209</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>67.39540476437324</v>
+        <v>67.33647734706318</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>66.91864081747731</v>
+        <v>66.915469184739</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>68.29354352302397</v>
+        <v>68.25849762205796</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>71.34337129835876</v>
+        <v>71.33997219858422</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>73.2605301732444</v>
+        <v>73.24394820189858</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>72.9056252892956</v>
+        <v>72.87593135386979</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>73.46783188980649</v>
+        <v>73.53594441678517</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>78.48129331782683</v>
+        <v>78.5197044729011</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>80.87339197688459</v>
+        <v>80.9523443429686</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>81.00128036445994</v>
+        <v>80.98445508854621</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>81.15761800391196</v>
+        <v>81.13834782878216</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>66.67774437913066</v>
+        <v>66.72939823080711</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>68.98965474750698</v>
+        <v>68.98977862056103</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>68.44882035373185</v>
+        <v>68.4076101094234</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>69.62901509370779</v>
+        <v>69.627193916766</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>72.49980584602224</v>
+        <v>72.43064034078367</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>74.49492137672486</v>
+        <v>74.48944811430889</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>74.23881220503075</v>
+        <v>74.27050283192976</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>74.77526249455751</v>
+        <v>74.82470209623581</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>79.93879232703314</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80.33378185976443</v>
+        <v>80.3337818597644</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>64.42390626264907</v>
@@ -953,7 +953,7 @@
         <v>66.05836323544092</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>67.05859476049883</v>
+        <v>67.05859476049882</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>71.61797373460217</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>77.38230611637469</v>
+        <v>77.37185394925532</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>79.23983897332246</v>
+        <v>79.2427578415049</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>79.06360414297295</v>
+        <v>79.07221706663516</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>79.52840542048834</v>
+        <v>79.55945680395757</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>63.75185301736313</v>
+        <v>63.74303714731342</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>66.38305381901046</v>
+        <v>66.40173254471421</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>65.21496071771941</v>
+        <v>65.11997882565404</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>66.28175449668637</v>
+        <v>66.44341353593114</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>71.03660694005372</v>
+        <v>71.1112742093478</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>73.04280572317616</v>
+        <v>73.00476100131428</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>72.54236441289277</v>
+        <v>72.56281116561968</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>73.16755173366418</v>
+        <v>73.14171750518321</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>78.69894347047301</v>
+        <v>78.67311612249449</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>81.03187917451064</v>
+        <v>81.01261061427412</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>80.82387859228852</v>
+        <v>80.88890728090594</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>81.1560322641437</v>
+        <v>81.2187478518446</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>65.22816135998043</v>
+        <v>65.15909454473315</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>68.12498124186752</v>
+        <v>68.08806640094559</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>66.97973211521709</v>
+        <v>66.94620243605091</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>67.72326986458728</v>
+        <v>67.76604222056585</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>72.1971324841473</v>
+        <v>72.1930132371966</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>74.43813111864399</v>
+        <v>74.4406554830789</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>73.99416592038202</v>
+        <v>74.02292944318931</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>74.34997516099762</v>
+        <v>74.38549368298717</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>80.80327538722065</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80.9080255315191</v>
+        <v>80.90802553151909</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>63.63145548939594</v>
@@ -1101,7 +1101,7 @@
         <v>73.57212027729564</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>74.9523900208375</v>
+        <v>74.95239002083748</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>78.7744051739015</v>
+        <v>78.74691627722467</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>78.67053214042411</v>
+        <v>78.66580230044144</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>79.6244081178327</v>
+        <v>79.41711017733661</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>79.95445052393592</v>
+        <v>79.93151563937109</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>62.42522039780596</v>
+        <v>62.518351107679</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>64.9256182346423</v>
+        <v>64.70858090071854</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>64.89033846358709</v>
+        <v>64.92270468845322</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>66.97277416720199</v>
+        <v>66.84156563506583</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>71.6345778952158</v>
+        <v>71.85004567073767</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>72.36245296239605</v>
+        <v>72.43540956234366</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>72.56872732912015</v>
+        <v>72.51650792128169</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>73.89058888593736</v>
+        <v>73.96778581175091</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>81.0028568637039</v>
+        <v>81.0125796049192</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>80.91714278260315</v>
+        <v>80.88703542999573</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>82.19012849968104</v>
+        <v>82.18272591369784</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>81.88551321244069</v>
+        <v>81.7895899640217</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>64.94949438554985</v>
+        <v>64.94554517776508</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>67.16742116969851</v>
+        <v>67.08865935222052</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>67.20472712172348</v>
+        <v>67.27978322793111</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>71.88323636243199</v>
+        <v>72.05736590206723</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>73.75572773272921</v>
+        <v>73.92937600502584</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>74.22715781795631</v>
+        <v>74.22730468716388</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>74.59457796776975</v>
+        <v>74.52279295119064</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>76.45157896980429</v>
+        <v>76.50568418857065</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>73.69037256129204</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>74.32046964421821</v>
+        <v>74.32046964421824</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>77.60605154145161</v>
+        <v>77.58936644905739</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>79.45066251666427</v>
+        <v>79.4568289423736</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>79.46476605969565</v>
+        <v>79.49650246118178</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>79.82127562040752</v>
+        <v>79.84282197652676</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>65.03296713698205</v>
+        <v>65.06951849167572</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>67.55831963170135</v>
+        <v>67.55397877126747</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>67.27323800998163</v>
+        <v>67.23792034810758</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>68.00283469783798</v>
+        <v>68.04801950713167</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>71.28537755656795</v>
+        <v>71.32772217786564</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>73.50977850002235</v>
+        <v>73.51059890085543</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>73.31510466836981</v>
+        <v>73.30983678866326</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>73.92856437358301</v>
+        <v>73.89482776959437</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>78.38301627249061</v>
+        <v>78.4081049143381</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>80.4140406497457</v>
+        <v>80.39651077870165</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>80.40445507189534</v>
+        <v>80.43318560412455</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>80.87129612248516</v>
+        <v>80.86111045347845</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>65.9275389483857</v>
+        <v>65.88808427344701</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>68.46884953036751</v>
+        <v>68.43441339611155</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>68.13889473610708</v>
+        <v>68.15027279551597</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>69.4243992928516</v>
+        <v>69.37450375829886</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>71.99371108353149</v>
+        <v>71.99626616356765</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>74.20334408289956</v>
+        <v>74.21366753707676</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>74.04075813673523</v>
+        <v>74.03438929644618</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>74.82193223826863</v>
+        <v>74.78992210178862</v>
       </c>
     </row>
     <row r="19">
